--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>SID</t>
   </si>
@@ -31,12 +44,18 @@
     <t>AllowPK</t>
   </si>
   <si>
+    <t>RevivalPointS</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>场景编号</t>
   </si>
   <si>
@@ -52,6 +71,9 @@
     <t>允许PK（1允许，0不允许）</t>
   </si>
   <si>
+    <t>场景中全部的复活点</t>
+  </si>
+  <si>
     <t>新手村</t>
   </si>
   <si>
@@ -61,10 +83,16 @@
     <t>场景</t>
   </si>
   <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
     <t>迷雾森林</t>
   </si>
   <si>
     <t>Scene1</t>
+  </si>
+  <si>
+    <t>[1000]</t>
   </si>
   <si>
     <t>河阳城</t>
@@ -85,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1040,23 +1068,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="18.925" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,73 +1101,88 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
@@ -1146,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1163,13 +1207,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>SID</t>
   </si>
@@ -93,21 +93,6 @@
   </si>
   <si>
     <t>[1000]</t>
-  </si>
-  <si>
-    <t>河阳城</t>
-  </si>
-  <si>
-    <t>Scene2</t>
-  </si>
-  <si>
-    <t>阳光海岸</t>
-  </si>
-  <si>
-    <t>Scene3</t>
-  </si>
-  <si>
-    <t>副本</t>
   </si>
 </sst>
 </file>
@@ -1068,13 +1053,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1185,40 +1170,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>SID</t>
   </si>
@@ -47,6 +47,9 @@
     <t>RevivalPointS</t>
   </si>
   <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -71,7 +74,10 @@
     <t>允许PK（1允许，0不允许）</t>
   </si>
   <si>
-    <t>场景中全部的复活点</t>
+    <t>场景中全部的复活点id</t>
+  </si>
+  <si>
+    <t>场景的范围</t>
   </si>
   <si>
     <t>新手村</t>
@@ -86,6 +92,9 @@
     <t>[0,1]</t>
   </si>
   <si>
+    <t>[-99,-73,200,226]</t>
+  </si>
+  <si>
     <t>迷雾森林</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
   </si>
   <si>
     <t>[1000]</t>
+  </si>
+  <si>
+    <t>[0,0,1000,1000]</t>
   </si>
 </sst>
 </file>
@@ -1053,24 +1065,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.925" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="20.2083333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.2083333333333" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,85 +1102,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>SID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>RevivalPointS</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -77,7 +74,16 @@
     <t>场景中全部的复活点id</t>
   </si>
   <si>
-    <t>场景的范围</t>
+    <t>入口</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>[0]</t>
   </si>
   <si>
     <t>新手村</t>
@@ -86,15 +92,9 @@
     <t>Scene0</t>
   </si>
   <si>
-    <t>场景</t>
-  </si>
-  <si>
     <t>[0,1]</t>
   </si>
   <si>
-    <t>[-99,-73,200,226]</t>
-  </si>
-  <si>
     <t>迷雾森林</t>
   </si>
   <si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>[1000]</t>
-  </si>
-  <si>
-    <t>[0,0,1000,1000]</t>
   </si>
 </sst>
 </file>
@@ -117,7 +114,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +126,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,142 +608,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1065,25 +1071,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.2083333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.2083333333333" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.2083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.2083333333333" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,100 +1108,105 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3">
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -86,7 +86,7 @@
     <t>[0]</t>
   </si>
   <si>
-    <t>新手村</t>
+    <t>起始之地</t>
   </si>
   <si>
     <t>Scene0</t>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="28785" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>起始之地</t>
   </si>
   <si>
-    <t>Scene0</t>
+    <t>Scene1</t>
   </si>
   <si>
     <t>[0,1]</t>
@@ -98,7 +98,7 @@
     <t>迷雾森林</t>
   </si>
   <si>
-    <t>Scene1</t>
+    <t>Scene2</t>
   </si>
   <si>
     <t>[1000]</t>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>Scene1</t>
   </si>
   <si>
-    <t>[0,1]</t>
+    <t>[1001,1002]</t>
   </si>
   <si>
     <t>迷雾森林</t>
@@ -101,7 +101,7 @@
     <t>Scene2</t>
   </si>
   <si>
-    <t>[1000]</t>
+    <t>[2001,2002]</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpaceDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>SID</t>
   </si>
@@ -47,6 +47,9 @@
     <t>RevivalPointS</t>
   </si>
   <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>场景中全部的复活点id</t>
   </si>
   <si>
+    <t>场景的范围</t>
+  </si>
+  <si>
     <t>入口</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
   </si>
   <si>
     <t>[0]</t>
+  </si>
+  <si>
+    <t>[0,0,1000,1000]</t>
   </si>
   <si>
     <t>起始之地</t>
@@ -811,6 +820,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
@@ -1089,7 +1105,7 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,105 +1124,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpaceDefine.xlsx
+++ b/Tools/excel2json/excel/SpaceDefine.xlsx
@@ -26,6 +26,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>大凉龙雀</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+minX minY maxX maxY</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
@@ -123,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +320,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1090,7 +1133,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1101,7 +1144,7 @@
     <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.2083333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.2083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.7083333333333" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1247,5 +1290,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>